--- a/documentação/Sprint 02/PresençaDailys - SPRINT 2.xlsx
+++ b/documentação/Sprint 02/PresençaDailys - SPRINT 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCorrea\OneDrive - SMART CONSULTING\Área de Trabalho\MBA-UNIVAS\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFB93BA-AA5F-46F0-AE68-223FBBE3CFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8535EAD-16D0-4F20-B76F-5C35F48184CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82E6F26E-DBE7-48AE-9EBA-E04DBB1108A1}"/>
+    <workbookView xWindow="28680" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{82E6F26E-DBE7-48AE-9EBA-E04DBB1108A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dailys" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Bruno</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Responsavel</t>
   </si>
   <si>
-    <t>Numero de Tasks</t>
-  </si>
-  <si>
     <t>Julio</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>luiz</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Plannig</t>
   </si>
 </sst>
 </file>
@@ -198,620 +201,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Numero de Tasks Pendentes x Resp</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dailys!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Numero de Tasks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B015-4557-9B2C-1FB75DDB6C72}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-B015-4557-9B2C-1FB75DDB6C72}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B015-4557-9B2C-1FB75DDB6C72}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B015-4557-9B2C-1FB75DDB6C72}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F2064F9D-3DD9-43F8-AFFE-539A6FB32FD7}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="pt-BR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B015-4557-9B2C-1FB75DDB6C72}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B4B666EC-EE18-4750-92D8-E426F0C73A15}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="pt-BR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B015-4557-9B2C-1FB75DDB6C72}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BE911D1B-2BA1-46C8-A75F-4C98912C236D}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="pt-BR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B015-4557-9B2C-1FB75DDB6C72}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E6AF4019-B316-4ABD-A226-0B49FD7D09BD}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="pt-BR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B015-4557-9B2C-1FB75DDB6C72}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dailys!$J$2:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Maicon</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dailys!$K$2:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B015-4557-9B2C-1FB75DDB6C72}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="pt-BR"/>
               <a:t>Numero de tasks x status x resp</a:t>
             </a:r>
@@ -949,7 +338,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +429,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1240,7 +629,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -1249,7 +638,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1922,48 +1311,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2954,552 +2303,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176F5BBA-331F-F39D-C07D-229CB1FCBCD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3518,7 +2335,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3554,7 +2371,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3564,8 +2381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{154DD704-AC24-4691-A619-B15224542963}" name="Tabela4" displayName="Tabela4" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{154DD704-AC24-4691-A619-B15224542963}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{154DD704-AC24-4691-A619-B15224542963}" name="Tabela4" displayName="Tabela4" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{154DD704-AC24-4691-A619-B15224542963}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{375E4170-76A7-4E93-ACB0-307EB2821AF6}" name="Dia"/>
     <tableColumn id="2" xr3:uid="{588212BD-2383-4461-93B7-A76717C74938}" name="Descrição"/>
@@ -3897,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBFBD9-3DE2-49F4-962D-879940CA3308}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3910,7 +2727,7 @@
     <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3929,19 +2746,13 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45747</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3955,14 +2766,8 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45748</v>
       </c>
@@ -3982,57 +2787,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45749</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45750</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45751</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2</v>
       </c>
@@ -4054,33 +2855,33 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
         <v>12</v>
       </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>13</v>
-      </c>
-      <c r="L17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -4123,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4132,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4145,15 +2946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9FFE58E7477854ABCE4B9294EF3BFB1" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ab63499aa8cd167c9411369f66d4d039">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="630ba791-7f72-403c-9b96-01ae271bcff8" xmlns:ns4="92d80ceb-a85c-4e9e-959e-74db2e5c5cb3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="004c5ac408afe2247b1523a23ad1dec7" ns3:_="" ns4:_="">
     <xsd:import namespace="630ba791-7f72-403c-9b96-01ae271bcff8"/>
@@ -4386,6 +3178,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4395,14 +3196,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272C1DA-3684-4397-BEE2-CB88A3595766}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF70118D-0B2E-4D97-BDEC-C94DC2529525}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4417,6 +3210,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272C1DA-3684-4397-BEE2-CB88A3595766}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
